--- a/Data_processed/PL_SP17.xlsx
+++ b/Data_processed/PL_SP17.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PikesStuff/Desktop/Tris_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PikesStuff/github/McHugh-et-al/Data_processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40317C07-FE5D-184E-87AF-F71729E9649A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF70C07-3333-4442-8981-B5312DCE324E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="760" windowWidth="14360" windowHeight="14500" activeTab="5" xr2:uid="{6A3FD34D-6D74-7746-8EAA-910798FFC7D8}"/>
+    <workbookView xWindow="260" yWindow="760" windowWidth="17040" windowHeight="14500" activeTab="5" xr2:uid="{6A3FD34D-6D74-7746-8EAA-910798FFC7D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Thin_Wire" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="12">
   <si>
     <t>PAR</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Plocamium</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>pmax</t>
   </si>
 </sst>
 </file>
@@ -95,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,15 +418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C78514-99D7-6048-A073-AE1DEFD97F9F}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +439,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -446,8 +459,14 @@
       <c r="D2">
         <v>-2.9573170731707319E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -460,8 +479,14 @@
       <c r="D3">
         <v>-2.1036585365853659E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -474,8 +499,14 @@
       <c r="D4">
         <v>2.4085365853658536E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -488,8 +519,14 @@
       <c r="D5">
         <v>7.9878048780487811E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -502,8 +539,14 @@
       <c r="D6">
         <v>1.25E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -516,8 +559,14 @@
       <c r="D7">
         <v>1.3902439024390245E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -530,8 +579,14 @@
       <c r="D8">
         <v>1.4146341463414636E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -544,8 +599,14 @@
       <c r="D9">
         <v>1.7896341463414633E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -558,8 +619,14 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -572,8 +639,14 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -586,8 +659,14 @@
       <c r="D12">
         <v>2.640642939150402E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -600,8 +679,14 @@
       <c r="D13">
         <v>4.5350172215843858E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -614,8 +699,14 @@
       <c r="D14">
         <v>1.6130884041331802E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -628,8 +719,14 @@
       <c r="D15">
         <v>1.6245694603903558E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -642,8 +739,14 @@
       <c r="D16">
         <v>2.4454649827784157E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -656,8 +759,14 @@
       <c r="D17">
         <v>2.7210103329506312E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -670,8 +779,14 @@
       <c r="D18">
         <v>-1.7777777777777777E-6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -684,8 +799,14 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -698,8 +819,14 @@
       <c r="D20">
         <v>9.5111111111111107E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -712,8 +839,14 @@
       <c r="D21">
         <v>1.1644444444444446E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -726,8 +859,14 @@
       <c r="D22">
         <v>1.7022222222222222E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -740,8 +879,14 @@
       <c r="D23">
         <v>1.4000000000000001E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -754,8 +899,14 @@
       <c r="D24">
         <v>2.3911111111111108E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.29945769999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -767,6 +918,12 @@
       </c>
       <c r="D25">
         <v>3.097777777777778E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.3581390000000001E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.29945769999999999</v>
       </c>
     </row>
   </sheetData>
@@ -776,15 +933,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1863DD4F-E6AB-C541-BB4C-92C11B5AF612}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -797,8 +954,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -811,8 +974,14 @@
       <c r="D2">
         <v>-4.4052044609665426E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -825,8 +994,14 @@
       <c r="D3">
         <v>2.4535315985130116E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -839,8 +1014,14 @@
       <c r="D4">
         <v>4.2750929368029743E-6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -853,8 +1034,14 @@
       <c r="D5">
         <v>2.6951672862453533E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -867,8 +1054,14 @@
       <c r="D6">
         <v>8.6059479553903339E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -881,8 +1074,14 @@
       <c r="D7">
         <v>8.0111524163568783E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -895,8 +1094,14 @@
       <c r="D8">
         <v>1.1226765799256507E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -909,8 +1114,14 @@
       <c r="D9">
         <v>1.3122676579925652E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -923,8 +1134,14 @@
       <c r="D10">
         <v>-7.325581395348838E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -937,8 +1154,14 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -951,8 +1174,14 @@
       <c r="D12">
         <v>5.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -965,8 +1194,14 @@
       <c r="D13">
         <v>2.0639534883720933E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -979,8 +1214,14 @@
       <c r="D14">
         <v>7.4999999999999993E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -993,8 +1234,14 @@
       <c r="D15">
         <v>9.0406976744186049E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -1007,8 +1254,14 @@
       <c r="D16">
         <v>1.2325581395348839E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1021,8 +1274,14 @@
       <c r="D17">
         <v>1.3982558139534883E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1035,8 +1294,14 @@
       <c r="D18">
         <v>-1.7622080679405521E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1049,8 +1314,14 @@
       <c r="D19">
         <v>-5.9447983014861994E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1063,8 +1334,14 @@
       <c r="D20">
         <v>2.738853503184713E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1077,8 +1354,14 @@
       <c r="D21">
         <v>5.2229299363057331E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1091,8 +1374,14 @@
       <c r="D22">
         <v>7.8768577494692151E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1105,8 +1394,14 @@
       <c r="D23">
         <v>7.5159235668789811E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -1119,8 +1414,14 @@
       <c r="D24">
         <v>8.980891719745223E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.24368890000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -1132,6 +1433,12 @@
       </c>
       <c r="D25">
         <v>1.1995753715498938E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.6599279999999996E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.24368890000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1141,15 +1448,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6801AA-C625-7E45-B5FA-DC0662D13DC7}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="A1:XFD1048576"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1162,8 +1469,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1176,8 +1489,14 @@
       <c r="D2">
         <v>-2.3961448691438663E-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F2">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1190,8 +1509,14 @@
       <c r="D3">
         <v>3.5498442505835058E-6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F3">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1204,8 +1529,14 @@
       <c r="D4">
         <v>9.7620716891046388E-7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F4">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1218,8 +1549,14 @@
       <c r="D5">
         <v>1.2690693195836033E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F5">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1232,8 +1569,14 @@
       <c r="D6">
         <v>2.3783956478909488E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F6">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1246,8 +1589,14 @@
       <c r="D7">
         <v>3.0706152767547324E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F7">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -1260,8 +1609,14 @@
       <c r="D8">
         <v>3.6918380206068453E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F8">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -1274,8 +1629,14 @@
       <c r="D9">
         <v>4.4284307026029232E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F9">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1288,8 +1649,14 @@
       <c r="D10">
         <v>-2.0642066565749893E-6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F10">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1302,8 +1669,14 @@
       <c r="D11">
         <v>5.3079599740499729E-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F11">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1316,8 +1689,14 @@
       <c r="D12">
         <v>2.1625022116499891E-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F12">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1330,8 +1709,14 @@
       <c r="D13">
         <v>2.6146617649949869E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F13">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -1344,8 +1729,14 @@
       <c r="D14">
         <v>3.4403444276249825E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F14">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -1358,8 +1749,14 @@
       <c r="D15">
         <v>3.4403444276249825E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F15">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -1372,8 +1769,14 @@
       <c r="D16">
         <v>4.5215955334499774E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F16">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1386,8 +1789,14 @@
       <c r="D17">
         <v>4.3446635343149778E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F17">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1400,8 +1809,14 @@
       <c r="D18">
         <v>-1.5725433923692331E-6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F18">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1414,8 +1829,14 @@
       <c r="D19">
         <v>-1.7035886750666691E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F19">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1428,8 +1849,14 @@
       <c r="D20">
         <v>5.2418113078974441E-6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F20">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1442,8 +1869,14 @@
       <c r="D21">
         <v>1.7363499957410283E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F21">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1456,8 +1889,14 @@
       <c r="D22">
         <v>2.6405624463533372E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F22">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1470,8 +1909,14 @@
       <c r="D23">
         <v>1.4546026379415407E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F23">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -1484,8 +1929,14 @@
       <c r="D24">
         <v>3.3023411239753899E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F24">
+        <v>0.31484630000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -1497,6 +1948,12 @@
       </c>
       <c r="D25">
         <v>3.0664596151200043E-5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8.2464400000000006E-6</v>
+      </c>
+      <c r="F25">
+        <v>0.31484630000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1506,15 +1963,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C945A280-4C6C-3843-BA10-7D5A6114033E}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="A1:XFD1048576"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1527,8 +1984,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1541,8 +2004,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1555,8 +2024,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1569,8 +2044,14 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1583,8 +2064,14 @@
       <c r="D5">
         <v>8.2031250000000005E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1597,8 +2084,14 @@
       <c r="D6">
         <v>1.2499999999999999E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1611,8 +2104,14 @@
       <c r="D7">
         <v>4.0624999999999998E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -1625,8 +2124,14 @@
       <c r="D8">
         <v>1.4296875E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -1639,8 +2144,14 @@
       <c r="D9">
         <v>1.4296875E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1653,8 +2164,14 @@
       <c r="D10">
         <v>-1.0920245398773006E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1667,8 +2184,14 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1681,8 +2204,14 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1695,8 +2224,14 @@
       <c r="D13">
         <v>3.7423312883435581E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -1709,8 +2244,14 @@
       <c r="D14">
         <v>3.6809815950920246E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -1723,8 +2264,14 @@
       <c r="D15">
         <v>8.8957055214723929E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -1737,8 +2284,14 @@
       <c r="D16">
         <v>1.5950920245398772E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1751,8 +2304,14 @@
       <c r="D17">
         <v>1.4478527607361964E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1765,8 +2324,14 @@
       <c r="D18">
         <v>-1.5748031496062993E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1779,8 +2344,14 @@
       <c r="D19">
         <v>8.6614173228346457E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1793,8 +2364,14 @@
       <c r="D20">
         <v>7.8740157480314964E-6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1807,8 +2384,14 @@
       <c r="D21">
         <v>1.6535433070866142E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1821,8 +2404,14 @@
       <c r="D22">
         <v>8.6614173228346457E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1835,8 +2424,14 @@
       <c r="D23">
         <v>2.283464566929134E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -1849,8 +2444,14 @@
       <c r="D24">
         <v>1.1574803149606299E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.20604259999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -1862,6 +2463,12 @@
       </c>
       <c r="D25">
         <v>1.9606299212598423E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9.1315790000000003E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.20604259999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1871,15 +2478,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E9438A-B050-F544-B62D-0462839AA44F}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="A1:XFD1048576"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1892,8 +2499,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1906,8 +2519,14 @@
       <c r="D2">
         <v>-6.5948275862068973E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F2">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1920,8 +2539,14 @@
       <c r="D3">
         <v>5.9482758620689654E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F3">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1934,8 +2559,14 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F4">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1948,8 +2579,14 @@
       <c r="D5">
         <v>4.7844827586206898E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F5">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1962,8 +2599,14 @@
       <c r="D6">
         <v>1.3706896551724139E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F6">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1976,8 +2619,14 @@
       <c r="D7">
         <v>1.5172413793103449E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F7">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -1990,8 +2639,14 @@
       <c r="D8">
         <v>1.8146551724137932E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F8">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -2004,8 +2659,14 @@
       <c r="D9">
         <v>-1.9439655172413795E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F9">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2018,8 +2679,14 @@
       <c r="D10">
         <v>-3.2258064516129032E-6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F10">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2032,8 +2699,14 @@
       <c r="D11">
         <v>-1.6129032258064516E-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F11">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2046,8 +2719,14 @@
       <c r="D12">
         <v>-2.9032258064516128E-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F12">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2060,8 +2739,14 @@
       <c r="D13">
         <v>1.6774193548387094E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F13">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -2074,8 +2759,14 @@
       <c r="D14">
         <v>1.5483870967741936E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F14">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -2088,8 +2779,14 @@
       <c r="D15">
         <v>2.0967741935483869E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F15">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -2102,8 +2799,14 @@
       <c r="D16">
         <v>8.6451612903225801E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F16">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -2116,8 +2819,14 @@
       <c r="D17">
         <v>1.0419354838709677E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F17">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2130,8 +2839,14 @@
       <c r="D18">
         <v>-3.5156249999999999E-6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F18">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2144,8 +2859,14 @@
       <c r="D19">
         <v>7.8125000000000002E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F19">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2158,8 +2879,14 @@
       <c r="D20">
         <v>2.6953125E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F20">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2172,8 +2899,14 @@
       <c r="D21">
         <v>9.7656250000000002E-6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F21">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -2186,8 +2919,14 @@
       <c r="D22">
         <v>1.13671875E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F22">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -2200,8 +2939,14 @@
       <c r="D23">
         <v>1.2109375E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F23">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -2214,8 +2959,14 @@
       <c r="D24">
         <v>1.25E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F24">
+        <v>-5.785831E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -2227,6 +2978,12 @@
       </c>
       <c r="D25">
         <v>1.4726562499999999E-4</v>
+      </c>
+      <c r="E25">
+        <v>1.9536369999999999E-4</v>
+      </c>
+      <c r="F25">
+        <v>-5.785831E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2236,15 +2993,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20773E5-EA65-AA45-BD52-0F7E220C5505}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2257,8 +3014,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2271,8 +3034,14 @@
       <c r="D2">
         <v>1.2648221343873517E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2285,8 +3054,14 @@
       <c r="D3">
         <v>2.173913043478261E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2299,8 +3074,14 @@
       <c r="D4">
         <v>3.4782608695652178E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -2313,8 +3094,14 @@
       <c r="D5">
         <v>6.7984189723320162E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -2327,8 +3114,14 @@
       <c r="D6">
         <v>1.2806324110671937E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -2341,8 +3134,14 @@
       <c r="D7">
         <v>1.1897233201581028E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -2355,8 +3154,14 @@
       <c r="D8">
         <v>1.8616600790513836E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -2369,8 +3174,14 @@
       <c r="D9">
         <v>2.0750988142292492E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2383,8 +3194,14 @@
       <c r="D10">
         <v>-5.2088221492257159E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2397,8 +3214,14 @@
       <c r="D11">
         <v>-2.8155795401220088E-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2411,8 +3234,14 @@
       <c r="D12">
         <v>1.4077897700610044E-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2425,8 +3254,14 @@
       <c r="D13">
         <v>3.754106053496012E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -2439,8 +3274,14 @@
       <c r="D14">
         <v>7.1797278273111223E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -2453,8 +3294,14 @@
       <c r="D15">
         <v>6.4758329422806191E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -2467,8 +3314,14 @@
       <c r="D16">
         <v>9.9014547160957314E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -2481,8 +3334,14 @@
       <c r="D17">
         <v>9.479117785077429E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2495,8 +3354,14 @@
       <c r="D18">
         <v>-3.5714285714285717E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2509,8 +3374,14 @@
       <c r="D19">
         <v>-3.428571428571429E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2523,8 +3394,14 @@
       <c r="D20">
         <v>-7.8571428571428577E-6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2537,8 +3414,14 @@
       <c r="D21">
         <v>3.1428571428571431E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -2551,8 +3434,14 @@
       <c r="D22">
         <v>1.2714285714285714E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -2565,8 +3454,14 @@
       <c r="D23">
         <v>1.1500000000000002E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -2579,8 +3474,14 @@
       <c r="D24">
         <v>1.7928571428571429E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.2671887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -2592,6 +3493,12 @@
       </c>
       <c r="D25">
         <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.480004E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.2671887</v>
       </c>
     </row>
   </sheetData>
